--- a/Data/EC/NIT-9009718307.xlsx
+++ b/Data/EC/NIT-9009718307.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5A0843-9D02-44AA-B8D9-F7CAA968701F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30A046A1-5E61-4E3C-A7F0-5E0CD9F8ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2BAF6614-0898-453C-B944-8F169616FBF0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70D84DD4-5A6A-4850-B698-15500E0AB4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="131">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,328 +65,337 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047491132</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL MAURY OSORIO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>1043021812</t>
   </si>
   <si>
     <t>ANA DEL CARMEN MARQUEZ HERNANDEZ</t>
   </si>
   <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
     <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -430,7 +439,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,7 +809,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9CFC60-AC99-B808-C1F7-FF99A0E351FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5530BD1-41ED-2D89-7BE8-C74E3FE1E4F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,32 +1160,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA80AAC-BAA1-4EC6-A6FB-554E20A5C9E1}">
-  <dimension ref="B2:J127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E131AFD-9A08-40AE-9360-CFFBFEADA9A9}">
+  <dimension ref="B2:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1185,7 +1194,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1196,7 +1205,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1207,7 +1216,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1218,10 +1227,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1234,8 +1243,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1250,15 +1259,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3220613</v>
+        <v>3365742</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1266,27 +1275,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F13" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1306,16 +1315,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1329,16 +1338,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>23901</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1352,30 +1361,30 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1384,21 +1393,21 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1407,21 +1416,21 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1430,21 +1439,21 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1453,21 +1462,21 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1476,21 +1485,21 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1499,21 +1508,21 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1522,21 +1531,21 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1545,21 +1554,21 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1568,21 +1577,21 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1591,21 +1600,21 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1614,21 +1623,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1637,21 +1646,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1660,21 +1669,21 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1683,21 +1692,21 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1706,21 +1715,21 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1729,21 +1738,21 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1752,21 +1761,21 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1775,21 +1784,21 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1798,21 +1807,21 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1821,21 +1830,21 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1844,21 +1853,21 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1867,15 +1876,15 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>35</v>
@@ -1890,15 +1899,15 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>36</v>
@@ -1913,15 +1922,15 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>37</v>
@@ -1936,15 +1945,15 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>38</v>
@@ -1959,15 +1968,15 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>39</v>
@@ -1982,15 +1991,15 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>40</v>
@@ -2005,15 +2014,15 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>41</v>
@@ -2028,15 +2037,15 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>42</v>
@@ -2051,15 +2060,15 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>43</v>
@@ -2074,15 +2083,15 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>44</v>
@@ -2097,15 +2106,15 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>45</v>
@@ -2120,15 +2129,15 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>46</v>
@@ -2143,15 +2152,15 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>47</v>
@@ -2166,15 +2175,15 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>48</v>
@@ -2189,15 +2198,15 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>49</v>
@@ -2212,15 +2221,15 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>50</v>
@@ -2235,15 +2244,15 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>51</v>
@@ -2258,15 +2267,15 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>52</v>
@@ -2281,15 +2290,15 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>53</v>
@@ -2304,15 +2313,15 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>54</v>
@@ -2327,15 +2336,15 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>55</v>
@@ -2350,15 +2359,15 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>56</v>
@@ -2373,15 +2382,15 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>57</v>
@@ -2396,15 +2405,15 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>58</v>
@@ -2419,15 +2428,15 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>59</v>
@@ -2442,15 +2451,15 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>60</v>
@@ -2465,15 +2474,15 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>61</v>
@@ -2488,15 +2497,15 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>62</v>
@@ -2511,15 +2520,15 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>63</v>
@@ -2534,15 +2543,15 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>64</v>
@@ -2557,15 +2566,15 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>65</v>
@@ -2580,15 +2589,15 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>66</v>
@@ -2603,15 +2612,15 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>67</v>
@@ -2626,15 +2635,15 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>68</v>
@@ -2649,15 +2658,15 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>69</v>
@@ -2672,15 +2681,15 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>70</v>
@@ -2695,15 +2704,15 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>71</v>
@@ -2718,15 +2727,15 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>72</v>
@@ -2741,15 +2750,15 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>73</v>
@@ -2764,15 +2773,15 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>74</v>
@@ -2787,15 +2796,15 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>75</v>
@@ -2810,15 +2819,15 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>76</v>
@@ -2833,15 +2842,15 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>77</v>
@@ -2856,15 +2865,15 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>78</v>
@@ -2879,15 +2888,15 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>79</v>
@@ -2902,15 +2911,15 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>80</v>
@@ -2925,15 +2934,15 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>81</v>
@@ -2948,15 +2957,15 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>82</v>
@@ -2971,15 +2980,15 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>83</v>
@@ -2994,15 +3003,15 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>84</v>
@@ -3017,15 +3026,15 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>85</v>
@@ -3040,15 +3049,15 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>86</v>
@@ -3063,15 +3072,15 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>87</v>
@@ -3086,15 +3095,15 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>88</v>
@@ -3109,15 +3118,15 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>89</v>
@@ -3132,15 +3141,15 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>90</v>
@@ -3155,15 +3164,15 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>91</v>
@@ -3178,15 +3187,15 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>92</v>
@@ -3201,15 +3210,15 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>93</v>
@@ -3224,15 +3233,15 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>94</v>
@@ -3247,15 +3256,15 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>95</v>
@@ -3270,21 +3279,21 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3293,21 +3302,21 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3316,21 +3325,21 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3339,21 +3348,21 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>99</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3362,21 +3371,21 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>100</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3385,21 +3394,21 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3408,21 +3417,21 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>102</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3431,21 +3440,21 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3454,21 +3463,21 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3477,21 +3486,21 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3500,21 +3509,21 @@
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>106</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3523,21 +3532,21 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>107</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3546,21 +3555,21 @@
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>108</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3569,21 +3578,21 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>109</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3592,21 +3601,21 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3615,21 +3624,21 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3638,21 +3647,21 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>112</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3661,21 +3670,21 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3684,21 +3693,21 @@
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>114</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3707,21 +3716,21 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3730,57 +3739,126 @@
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="22" t="s">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F121" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G121" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="26"/>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" s="32"/>
-      <c r="H126" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C127" s="32"/>
-      <c r="H127" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="F121" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G121" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F122" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G122" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F123" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G123" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F124" s="24">
+        <v>23901</v>
+      </c>
+      <c r="G124" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="26"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" s="32"/>
+      <c r="H129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="H130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="H129:J129"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009718307.xlsx
+++ b/Data/EC/NIT-9009718307.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30A046A1-5E61-4E3C-A7F0-5E0CD9F8ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9F1EED-64FA-43A5-AA2C-3C2D62C73451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70D84DD4-5A6A-4850-B698-15500E0AB4B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27A50ABC-4F5C-4766-8A67-D7CCC1C1BC36}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="130">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,337 +65,334 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1047491132</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL MAURY OSORIO</t>
+    <t>1043021812</t>
+  </si>
+  <si>
+    <t>ANA DEL CARMEN MARQUEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1043021812</t>
-  </si>
-  <si>
-    <t>ANA DEL CARMEN MARQUEZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -439,7 +436,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,7 +491,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -507,9 +506,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -709,23 +706,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,10 +750,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,13 +791,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -809,7 +806,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5530BD1-41ED-2D89-7BE8-C74E3FE1E4F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C820641-EA75-06AB-78FF-DD8742BCB847}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -831,7 +828,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1160,32 +1157,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E131AFD-9A08-40AE-9360-CFFBFEADA9A9}">
-  <dimension ref="B2:J130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5E940D-7845-467C-8A70-8E1AA82DA85D}">
+  <dimension ref="B2:J129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1194,7 +1191,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1205,7 +1202,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1216,7 +1213,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1227,10 +1224,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1243,8 +1240,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1259,15 +1256,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3365742</v>
+        <v>3283111</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1275,27 +1272,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1315,16 +1312,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1338,16 +1335,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>23901</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1361,30 +1358,30 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1393,21 +1390,21 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1416,21 +1413,21 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1439,21 +1436,21 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1462,21 +1459,21 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1485,21 +1482,21 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1508,21 +1505,21 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1531,21 +1528,21 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1554,21 +1551,21 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1577,21 +1574,21 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1600,21 +1597,21 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1623,21 +1620,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1646,21 +1643,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1669,21 +1666,21 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1692,21 +1689,21 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1715,21 +1712,21 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1738,21 +1735,21 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1761,21 +1758,21 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1784,21 +1781,21 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1807,21 +1804,21 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1830,21 +1827,21 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1853,21 +1850,21 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1876,15 +1873,15 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>35</v>
@@ -1899,15 +1896,15 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>36</v>
@@ -1922,15 +1919,15 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>37</v>
@@ -1945,15 +1942,15 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>38</v>
@@ -1968,15 +1965,15 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>39</v>
@@ -1991,15 +1988,15 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>40</v>
@@ -2014,15 +2011,15 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>41</v>
@@ -2037,15 +2034,15 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>42</v>
@@ -2060,15 +2057,15 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>43</v>
@@ -2083,15 +2080,15 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>44</v>
@@ -2106,15 +2103,15 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>45</v>
@@ -2129,15 +2126,15 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>46</v>
@@ -2152,15 +2149,15 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>47</v>
@@ -2175,15 +2172,15 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>48</v>
@@ -2198,15 +2195,15 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>49</v>
@@ -2221,15 +2218,15 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>50</v>
@@ -2244,15 +2241,15 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>51</v>
@@ -2267,15 +2264,15 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>52</v>
@@ -2290,15 +2287,15 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>53</v>
@@ -2313,15 +2310,15 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>54</v>
@@ -2336,15 +2333,15 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>55</v>
@@ -2359,15 +2356,15 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>56</v>
@@ -2382,15 +2379,15 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>57</v>
@@ -2405,15 +2402,15 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>58</v>
@@ -2428,15 +2425,15 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>59</v>
@@ -2451,15 +2448,15 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>60</v>
@@ -2474,15 +2471,15 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>61</v>
@@ -2497,15 +2494,15 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>62</v>
@@ -2520,15 +2517,15 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>63</v>
@@ -2543,15 +2540,15 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>64</v>
@@ -2566,15 +2563,15 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>65</v>
@@ -2589,15 +2586,15 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>66</v>
@@ -2612,15 +2609,15 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>67</v>
@@ -2635,15 +2632,15 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>68</v>
@@ -2658,15 +2655,15 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>69</v>
@@ -2681,15 +2678,15 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>70</v>
@@ -2704,15 +2701,15 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>71</v>
@@ -2727,15 +2724,15 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>72</v>
@@ -2750,15 +2747,15 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>73</v>
@@ -2773,15 +2770,15 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>74</v>
@@ -2796,15 +2793,15 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>75</v>
@@ -2819,15 +2816,15 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>76</v>
@@ -2842,15 +2839,15 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>77</v>
@@ -2865,15 +2862,15 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>78</v>
@@ -2888,15 +2885,15 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>79</v>
@@ -2911,15 +2908,15 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>80</v>
@@ -2934,15 +2931,15 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>81</v>
@@ -2957,15 +2954,15 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>82</v>
@@ -2980,15 +2977,15 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>83</v>
@@ -3003,15 +3000,15 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>84</v>
@@ -3026,15 +3023,15 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>85</v>
@@ -3049,15 +3046,15 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>86</v>
@@ -3072,15 +3069,15 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>87</v>
@@ -3095,15 +3092,15 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>88</v>
@@ -3118,15 +3115,15 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>89</v>
@@ -3141,15 +3138,15 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>90</v>
@@ -3164,15 +3161,15 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>91</v>
@@ -3187,15 +3184,15 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>92</v>
@@ -3210,15 +3207,15 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>93</v>
@@ -3233,15 +3230,15 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>94</v>
@@ -3256,15 +3253,15 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>95</v>
@@ -3279,21 +3276,21 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F101" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3302,21 +3299,21 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F102" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3325,21 +3322,21 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F103" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3348,21 +3345,21 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>99</v>
       </c>
       <c r="F104" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3371,21 +3368,21 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>100</v>
       </c>
       <c r="F105" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3394,21 +3391,21 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F106" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3417,21 +3414,21 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>102</v>
       </c>
       <c r="F107" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3440,21 +3437,21 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F108" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3463,21 +3460,21 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F109" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3486,21 +3483,21 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:10">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3509,21 +3506,21 @@
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:10">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>106</v>
       </c>
       <c r="F111" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3532,21 +3529,21 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:10">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>107</v>
       </c>
       <c r="F112" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3555,21 +3552,21 @@
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>108</v>
       </c>
       <c r="F113" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3578,21 +3575,21 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>109</v>
       </c>
       <c r="F114" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3601,21 +3598,21 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F115" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3624,21 +3621,21 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:10">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F116" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3647,21 +3644,21 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:10">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>112</v>
       </c>
       <c r="F117" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3670,21 +3667,21 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:10">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F118" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3693,21 +3690,21 @@
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:10">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>114</v>
       </c>
       <c r="F119" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3716,21 +3713,21 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:10">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F120" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3739,21 +3736,21 @@
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:10">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>116</v>
       </c>
       <c r="F121" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3762,21 +3759,21 @@
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:10">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>117</v>
       </c>
       <c r="F122" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3785,55 +3782,43 @@
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="16" t="s">
+    <row r="123" spans="2:10">
+      <c r="B123" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F123" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G123" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F124" s="24">
-        <v>23901</v>
-      </c>
-      <c r="G124" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="26"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F123" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G123" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="26"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" s="32"/>
+      <c r="H128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="2:10">
       <c r="B129" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C129" s="32"/>
       <c r="H129" s="1" t="s">
@@ -3842,23 +3827,12 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C130" s="32"/>
-      <c r="H130" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B130:C130"/>
     <mergeCell ref="B129:C129"/>
-    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="B128:C128"/>
     <mergeCell ref="H129:J129"/>
+    <mergeCell ref="H128:J128"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
